--- a/data/trans_orig/P79_n_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P79_n_R-Habitat-trans_orig.xlsx
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7679</v>
+        <v>5911</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.001719842119480155</v>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01111702568010891</v>
+        <v>0.008558323622240342</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6007</v>
+        <v>6155</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0008336867561348171</v>
@@ -830,7 +830,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.004215512444432063</v>
+        <v>0.004319700517163576</v>
       </c>
     </row>
     <row r="6">
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3948</v>
+        <v>4021</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0011632266756882</v>
@@ -857,7 +857,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.005715149742840631</v>
+        <v>0.005822076908120285</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2856</v>
+        <v>3181</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0009536877799461875</v>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.003889712901051895</v>
+        <v>0.004333027041779725</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -890,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>5342</v>
+        <v>4661</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.001055260941980405</v>
@@ -899,7 +899,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.003749161203076435</v>
+        <v>0.003270842417673696</v>
       </c>
     </row>
     <row r="7">
@@ -914,19 +914,19 @@
         <v>24129</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15925</v>
+        <v>15451</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37352</v>
+        <v>36406</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03493365690935434</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02305592427099578</v>
+        <v>0.02236935580300257</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05407733005567277</v>
+        <v>0.05270746993584218</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>28</v>
@@ -935,19 +935,19 @@
         <v>21632</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15219</v>
+        <v>14130</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>32932</v>
+        <v>33073</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.0294640566847308</v>
+        <v>0.02946405668473081</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02072895147476299</v>
+        <v>0.01924641228610307</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04485515872099153</v>
+        <v>0.04504788226527473</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>51</v>
@@ -956,19 +956,19 @@
         <v>45761</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>33596</v>
+        <v>34683</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>59949</v>
+        <v>61034</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03211542404977648</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02357766755417686</v>
+        <v>0.02434072257820603</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04207275655715081</v>
+        <v>0.04283400024288499</v>
       </c>
     </row>
     <row r="8">
@@ -983,19 +983,19 @@
         <v>35364</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>25597</v>
+        <v>25770</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>49011</v>
+        <v>48218</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.0511999287235947</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03705962771099752</v>
+        <v>0.03730885177586538</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.07095706557962664</v>
+        <v>0.06980999594055091</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>86</v>
@@ -1004,19 +1004,19 @@
         <v>60062</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>48156</v>
+        <v>47608</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>74311</v>
+        <v>72442</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.08180777862647926</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06559163113033828</v>
+        <v>0.06484470201481167</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1012167582289384</v>
+        <v>0.09867069724784708</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>122</v>
@@ -1025,19 +1025,19 @@
         <v>95426</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>79509</v>
+        <v>79958</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>114734</v>
+        <v>113394</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06697074282605932</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05579984560029212</v>
+        <v>0.05611535971517607</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.0805216877176133</v>
+        <v>0.07958128639403733</v>
       </c>
     </row>
     <row r="9">
@@ -1052,19 +1052,19 @@
         <v>629225</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>609828</v>
+        <v>612533</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>642421</v>
+        <v>641958</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.9109833455718827</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8829007220519103</v>
+        <v>0.886816023175005</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.9300882058629159</v>
+        <v>0.9294181600973188</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1126</v>
@@ -1073,19 +1073,19 @@
         <v>651786</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>634440</v>
+        <v>636618</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>665567</v>
+        <v>665654</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.8877744769088437</v>
+        <v>0.8877744769088436</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.8641483282211394</v>
+        <v>0.8671145193506432</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.9065447739739271</v>
+        <v>0.906663543657112</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>1795</v>
@@ -1094,19 +1094,19 @@
         <v>1281011</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1256239</v>
+        <v>1258392</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>1301004</v>
+        <v>1300974</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.8990248854260492</v>
+        <v>0.899024885426049</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.8816399794497097</v>
+        <v>0.8831508280932074</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.9130564485446275</v>
+        <v>0.9130352301589628</v>
       </c>
     </row>
     <row r="10">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>2760</v>
+        <v>3916</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0006306221651813749</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.002575888157858025</v>
+        <v>0.003655092267176254</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>3637</v>
+        <v>3411</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.0003186654263583912</v>
@@ -1242,7 +1242,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.001715275872898666</v>
+        <v>0.001608439919285789</v>
       </c>
     </row>
     <row r="12">
@@ -1270,19 +1270,19 @@
         <v>3505</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1274</v>
+        <v>1284</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>9359</v>
+        <v>9270</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.003270833882031085</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001188957162664694</v>
+        <v>0.001198626154019473</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.008734578294819908</v>
+        <v>0.008651225275505459</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4</v>
@@ -1291,19 +1291,19 @@
         <v>3505</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1313</v>
+        <v>1254</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>9749</v>
+        <v>9292</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0016528148408249</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0006191634591359589</v>
+        <v>0.0005912600155225803</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.004597872759634128</v>
+        <v>0.004381993305874006</v>
       </c>
     </row>
     <row r="13">
@@ -1318,19 +1318,19 @@
         <v>6618</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>2138</v>
+        <v>1607</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>18453</v>
+        <v>19914</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00630974794769134</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002038165754756949</v>
+        <v>0.001532418287343094</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01759213449525775</v>
+        <v>0.01898513828112853</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -1339,19 +1339,19 @@
         <v>4671</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1730</v>
+        <v>1606</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>9947</v>
+        <v>9857</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.004359054686005902</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.001614151730688442</v>
+        <v>0.001499215654320545</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.009283710929832547</v>
+        <v>0.009199401848628804</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>10</v>
@@ -1360,19 +1360,19 @@
         <v>11289</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>4874</v>
+        <v>5345</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>21055</v>
+        <v>22698</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.005324025379962302</v>
+        <v>0.005324025379962301</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.002298418894613876</v>
+        <v>0.002520807419576181</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.009929583914006326</v>
+        <v>0.01070483472954504</v>
       </c>
     </row>
     <row r="14">
@@ -1387,19 +1387,19 @@
         <v>34638</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>23869</v>
+        <v>24602</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>48327</v>
+        <v>48781</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03302241584205759</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.022755859102199</v>
+        <v>0.02345423123237307</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04607341719931643</v>
+        <v>0.04650600555618327</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>54</v>
@@ -1408,19 +1408,19 @@
         <v>39948</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30638</v>
+        <v>29646</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>55629</v>
+        <v>55251</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03728345045705549</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02859447899905125</v>
+        <v>0.02766866345452237</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.05191791079766691</v>
+        <v>0.051565839614273</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>87</v>
@@ -1429,19 +1429,19 @@
         <v>74586</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>59794</v>
+        <v>59264</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>95660</v>
+        <v>92552</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03517559802829685</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02819969989694212</v>
+        <v>0.02794977081570358</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04511413441245837</v>
+        <v>0.04364861217454998</v>
       </c>
     </row>
     <row r="15">
@@ -1456,19 +1456,19 @@
         <v>93187</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>74214</v>
+        <v>75456</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>115247</v>
+        <v>116605</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.08884156920928347</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07075323693331581</v>
+        <v>0.07193721975991679</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1098727236616151</v>
+        <v>0.1111671490651085</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>125</v>
@@ -1477,19 +1477,19 @@
         <v>97047</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>80763</v>
+        <v>81485</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>114519</v>
+        <v>114045</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.09057358437989534</v>
+        <v>0.09057358437989535</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.07537582713603184</v>
+        <v>0.07604934431885857</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1068796392980402</v>
+        <v>0.1064371258336178</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>208</v>
@@ -1498,19 +1498,19 @@
         <v>190235</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>166003</v>
+        <v>164113</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>220043</v>
+        <v>217645</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.08971678956035292</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.0782889535277168</v>
+        <v>0.07739744427515119</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1037746732014526</v>
+        <v>0.1026436860983778</v>
       </c>
     </row>
     <row r="16">
@@ -1525,19 +1525,19 @@
         <v>914473</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>888343</v>
+        <v>890192</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>936440</v>
+        <v>937632</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8718262670009677</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8469147551219059</v>
+        <v>0.8486771918890799</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8927682079001065</v>
+        <v>0.893904606845381</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1327</v>
@@ -1546,19 +1546,19 @@
         <v>925628</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>903775</v>
+        <v>904266</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>946029</v>
+        <v>944051</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8638824544298308</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8434878518876764</v>
+        <v>0.8439456351732647</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8829225846666231</v>
+        <v>0.8810771343065416</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2171</v>
@@ -1567,19 +1567,19 @@
         <v>1840101</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1801714</v>
+        <v>1808456</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1869505</v>
+        <v>1871281</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8678121067642045</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8497081775962607</v>
+        <v>0.8528881685876202</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8816794105839181</v>
+        <v>0.8825170917294733</v>
       </c>
     </row>
     <row r="17">
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4410</v>
+        <v>3103</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0009382456990972798</v>
@@ -1739,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.005429110563529153</v>
+        <v>0.003820596031145366</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -1751,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4580</v>
+        <v>4502</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.0004717905482122267</v>
@@ -1760,7 +1760,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.002835465285423608</v>
+        <v>0.002787034128491831</v>
       </c>
     </row>
     <row r="20">
@@ -1775,19 +1775,19 @@
         <v>5583</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1740</v>
+        <v>1507</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14772</v>
+        <v>13159</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.006951532263456075</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.002166224701407958</v>
+        <v>0.001876137377519116</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01839487552552807</v>
+        <v>0.01638597019823793</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1796,19 +1796,19 @@
         <v>5693</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1725</v>
+        <v>1570</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>16879</v>
+        <v>17282</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.007009334628429923</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002123241621106025</v>
+        <v>0.001932705864087816</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.0207809224693563</v>
+        <v>0.02127624596518973</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -1817,19 +1817,19 @@
         <v>11276</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4899</v>
+        <v>5071</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>22153</v>
+        <v>24466</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.006980597794462732</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.003032999507696817</v>
+        <v>0.003139131320442216</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01371440792942372</v>
+        <v>0.01514599566285233</v>
       </c>
     </row>
     <row r="21">
@@ -1844,19 +1844,19 @@
         <v>24186</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>15373</v>
+        <v>15124</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38442</v>
+        <v>38902</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03011669794779761</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01914215476007442</v>
+        <v>0.01883294058319493</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.04786915364423724</v>
+        <v>0.04844173686433378</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>29</v>
@@ -1865,19 +1865,19 @@
         <v>25317</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>16921</v>
+        <v>17368</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>36094</v>
+        <v>37759</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03116880023222419</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02083245776181055</v>
+        <v>0.02138266113767728</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04443614946236216</v>
+        <v>0.04648684110865588</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>50</v>
@@ -1886,19 +1886,19 @@
         <v>49503</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>36171</v>
+        <v>37287</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>66518</v>
+        <v>67846</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03064574051524293</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02239233630325493</v>
+        <v>0.0230833144849231</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04117887778387577</v>
+        <v>0.04200097433860318</v>
       </c>
     </row>
     <row r="22">
@@ -1913,19 +1913,19 @@
         <v>72096</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>54042</v>
+        <v>53796</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>94827</v>
+        <v>94110</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.08977547323957535</v>
+        <v>0.08977547323957537</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06729436278085649</v>
+        <v>0.06698807703391672</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.118080230407014</v>
+        <v>0.1171877996433039</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>69</v>
@@ -1934,19 +1934,19 @@
         <v>56637</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>44269</v>
+        <v>43591</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>71109</v>
+        <v>73280</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06972773389349145</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05450141136159759</v>
+        <v>0.05366685841747351</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08754509273147254</v>
+        <v>0.09021737435389476</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>128</v>
@@ -1955,19 +1955,19 @@
         <v>128733</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>106919</v>
+        <v>106895</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>156168</v>
+        <v>155035</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.07969460215686754</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.06619032666569884</v>
+        <v>0.06617553788985643</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.09667881746767772</v>
+        <v>0.09597725274681046</v>
       </c>
     </row>
     <row r="23">
@@ -1982,19 +1982,19 @@
         <v>701208</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>677587</v>
+        <v>674826</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>722242</v>
+        <v>723363</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.873156296549171</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8437425556643273</v>
+        <v>0.8403042448841215</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8993474276659594</v>
+        <v>0.9007442336504474</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>943</v>
@@ -2003,19 +2003,19 @@
         <v>723849</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>704943</v>
+        <v>704390</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>739830</v>
+        <v>739803</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8911558855467571</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8678791996518218</v>
+        <v>0.8671986245371389</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9108303920322999</v>
+        <v>0.9107967299992286</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1535</v>
@@ -2024,19 +2024,19 @@
         <v>1425058</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1395620</v>
+        <v>1393955</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1449265</v>
+        <v>1452122</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8822072689852146</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8639836159959877</v>
+        <v>0.8629525436481922</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8971932978451718</v>
+        <v>0.8989621982034329</v>
       </c>
     </row>
     <row r="24">
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2847</v>
+        <v>3568</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.0006303676826730842</v>
@@ -2151,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.002544021819660953</v>
+        <v>0.003188509634940178</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1</v>
@@ -2163,7 +2163,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3523</v>
+        <v>3028</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.0003344584500396854</v>
@@ -2172,7 +2172,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.001670430555889576</v>
+        <v>0.001435516085944828</v>
       </c>
     </row>
     <row r="26">
@@ -2187,19 +2187,19 @@
         <v>3226</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>880</v>
+        <v>865</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>8878</v>
+        <v>8968</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.003258335293798009</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0008887152676482272</v>
+        <v>0.0008740205792321843</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.008967524047049142</v>
+        <v>0.009058110290873214</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3355</v>
+        <v>3397</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0006029362559083651</v>
@@ -2220,7 +2220,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.002998394786828356</v>
+        <v>0.003035273823465528</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -2229,19 +2229,19 @@
         <v>3901</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1209</v>
+        <v>929</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>9711</v>
+        <v>9585</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.001849442244770888</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0005733291148224928</v>
+        <v>0.0004404657953227565</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.004604346798881874</v>
+        <v>0.004544538653971105</v>
       </c>
     </row>
     <row r="27">
@@ -2256,19 +2256,19 @@
         <v>6112</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>2402</v>
+        <v>2485</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>14294</v>
+        <v>13391</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.006173063018665481</v>
+        <v>0.006173063018665482</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.00242588498015389</v>
+        <v>0.002509962246974203</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01443735787437781</v>
+        <v>0.01352585497583494</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>6</v>
@@ -2277,19 +2277,19 @@
         <v>3999</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1323</v>
+        <v>1486</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>8021</v>
+        <v>8721</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.00357373582214895</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.00118189425028857</v>
+        <v>0.001328036431181875</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.00716799574360469</v>
+        <v>0.007793585269665866</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>12</v>
@@ -2298,19 +2298,19 @@
         <v>10111</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>5038</v>
+        <v>4923</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>17251</v>
+        <v>17798</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.004793920386215868</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.002388769194066804</v>
+        <v>0.002334254181745679</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.008179411751841174</v>
+        <v>0.008438876757260445</v>
       </c>
     </row>
     <row r="28">
@@ -2325,19 +2325,19 @@
         <v>40200</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>28790</v>
+        <v>28757</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>54358</v>
+        <v>54485</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0406037457177329</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02907878044003276</v>
+        <v>0.02904593552782874</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05490329508149531</v>
+        <v>0.05503229302256828</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>53</v>
@@ -2346,19 +2346,19 @@
         <v>42911</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>32640</v>
+        <v>32689</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>56081</v>
+        <v>56611</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.03834590123331617</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.02916794751258501</v>
+        <v>0.02921143000756028</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05011518813531993</v>
+        <v>0.05058853281134305</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>94</v>
@@ -2367,19 +2367,19 @@
         <v>83111</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>66249</v>
+        <v>66266</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>102515</v>
+        <v>101236</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.03940578588025136</v>
+        <v>0.03940578588025135</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03141104247204958</v>
+        <v>0.03141913007196363</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04860594658315182</v>
+        <v>0.04799931130982615</v>
       </c>
     </row>
     <row r="29">
@@ -2394,19 +2394,19 @@
         <v>133857</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>111246</v>
+        <v>112564</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>159098</v>
+        <v>160280</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.13520058449637</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1123631387961604</v>
+        <v>0.1136936637541337</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1606951585807135</v>
+        <v>0.1618890446307213</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>196</v>
@@ -2415,19 +2415,19 @@
         <v>153896</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>132502</v>
+        <v>132911</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>177347</v>
+        <v>176618</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.137525158586766</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1184066469840103</v>
+        <v>0.118772635769391</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1584809033610152</v>
+        <v>0.1578294689503071</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>322</v>
@@ -2436,19 +2436,19 @@
         <v>287753</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>253230</v>
+        <v>253838</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>320443</v>
+        <v>321477</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.1364339495127671</v>
+        <v>0.136433949512767</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1200652397997458</v>
+        <v>0.1203534409679858</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1519333003848703</v>
+        <v>0.1524232702784974</v>
       </c>
     </row>
     <row r="30">
@@ -2463,19 +2463,19 @@
         <v>806667</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>776167</v>
+        <v>779238</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>832004</v>
+        <v>830680</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.8147642714734336</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.7839583556232922</v>
+        <v>0.7870601587740493</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.8403557378344689</v>
+        <v>0.8390177618432147</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1305</v>
@@ -2484,19 +2484,19 @@
         <v>916855</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>892387</v>
+        <v>891592</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>942650</v>
+        <v>939565</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.8193219004191874</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.7974571991143267</v>
+        <v>0.796746132461565</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.8423727930161031</v>
+        <v>0.8396161164535157</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2135</v>
@@ -2505,19 +2505,19 @@
         <v>1723523</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>1686410</v>
+        <v>1687047</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>1760258</v>
+        <v>1758532</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.8171824435259551</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.7995860149768778</v>
+        <v>0.7998881653620623</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.8346001316405185</v>
+        <v>0.8337816293366805</v>
       </c>
     </row>
     <row r="31">
@@ -2623,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>4267</v>
+        <v>4870</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0003695798538156658</v>
@@ -2632,7 +2632,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.001141728379534455</v>
+        <v>0.001303185550968777</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>2</v>
@@ -2644,7 +2644,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4163</v>
+        <v>4823</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.0001899803183907217</v>
@@ -2653,7 +2653,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.0005726412411894256</v>
+        <v>0.0006635011427927556</v>
       </c>
     </row>
     <row r="33">
@@ -2668,19 +2668,19 @@
         <v>4414</v>
       </c>
       <c r="E33" s="5" t="n">
-        <v>1146</v>
+        <v>1214</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>10536</v>
+        <v>10485</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.001249409464119875</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>0.0003244214694576311</v>
+        <v>0.000343705826107142</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.002982237369499397</v>
+        <v>0.002967856231877509</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>6</v>
@@ -2689,19 +2689,19 @@
         <v>4941</v>
       </c>
       <c r="L33" s="5" t="n">
-        <v>2106</v>
+        <v>2046</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>11789</v>
+        <v>12288</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.001322313043079957</v>
       </c>
       <c r="O33" s="6" t="n">
-        <v>0.0005636807683952531</v>
+        <v>0.0005474578029252783</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.003154626824726508</v>
+        <v>0.003288346340569668</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>10</v>
@@ -2710,19 +2710,19 @@
         <v>9355</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>4913</v>
+        <v>5029</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>17516</v>
+        <v>16758</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.001286885113833096</v>
       </c>
       <c r="V33" s="6" t="n">
-        <v>0.0006758210381261602</v>
+        <v>0.0006918379018535359</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.002409379666190413</v>
+        <v>0.002305164325583099</v>
       </c>
     </row>
     <row r="34">
@@ -2737,19 +2737,19 @@
         <v>19116</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>10082</v>
+        <v>10918</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>32032</v>
+        <v>33635</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.005411108718120903</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.002853942935352252</v>
+        <v>0.003090364544263292</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.009067208334587958</v>
+        <v>0.009520881392992226</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>18</v>
@@ -2758,19 +2758,19 @@
         <v>15063</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>8971</v>
+        <v>8712</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>27020</v>
+        <v>27496</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.004030914951759976</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.002400632529479426</v>
+        <v>0.002331192461915853</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.007230536516490624</v>
+        <v>0.007357760614487571</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>33</v>
@@ -2779,19 +2779,19 @@
         <v>34180</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>23613</v>
+        <v>23114</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>50625</v>
+        <v>49910</v>
       </c>
       <c r="U34" s="6" t="n">
-        <v>0.004701628348812352</v>
+        <v>0.004701628348812353</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.003248078615791394</v>
+        <v>0.003179483857000826</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.006963840990215971</v>
+        <v>0.006865496769040674</v>
       </c>
     </row>
     <row r="35">
@@ -2806,19 +2806,19 @@
         <v>123153</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>99756</v>
+        <v>100963</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>147320</v>
+        <v>146374</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.03486024065306785</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02823735785709536</v>
+        <v>0.02857895346940222</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.04170110434498166</v>
+        <v>0.04143321767823199</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>164</v>
@@ -2827,19 +2827,19 @@
         <v>129808</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>111539</v>
+        <v>110926</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>153197</v>
+        <v>153005</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03473629793426952</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02984755455384609</v>
+        <v>0.02968340431233357</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04099511900100573</v>
+        <v>0.04094375220595912</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>282</v>
@@ -2848,19 +2848,19 @@
         <v>252961</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>221562</v>
+        <v>224210</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>285970</v>
+        <v>286304</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03479652863809621</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03047738934847743</v>
+        <v>0.0308417079322176</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.03933710177795498</v>
+        <v>0.0393831602559456</v>
       </c>
     </row>
     <row r="36">
@@ -2875,19 +2875,19 @@
         <v>334505</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>298148</v>
+        <v>296033</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>371702</v>
+        <v>376835</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.0946865321925766</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.08439514600822193</v>
+        <v>0.08379642100480071</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1052157047970723</v>
+        <v>0.1066686600169214</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>476</v>
@@ -2896,19 +2896,19 @@
         <v>367642</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>335944</v>
+        <v>335322</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>401485</v>
+        <v>401739</v>
       </c>
       <c r="N36" s="6" t="n">
-        <v>0.09838017075998243</v>
+        <v>0.09838017075998244</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.08989775797883043</v>
+        <v>0.08973131119215022</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.107436419379323</v>
+        <v>0.1075044019730578</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>780</v>
@@ -2917,19 +2917,19 @@
         <v>702147</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>653866</v>
+        <v>649650</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>755174</v>
+        <v>754256</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.09658522505640894</v>
+        <v>0.09658522505640893</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.089943782233706</v>
+        <v>0.08936385047814015</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.1038793679794209</v>
+        <v>0.1037531470884839</v>
       </c>
     </row>
     <row r="37">
@@ -2944,19 +2944,19 @@
         <v>3051574</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>3000943</v>
+        <v>3003871</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>3091016</v>
+        <v>3095619</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.8637927089721148</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.8494607264950373</v>
+        <v>0.8502896518243723</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8749573781810883</v>
+        <v>0.8762603940234918</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>4701</v>
@@ -2965,19 +2965,19 @@
         <v>3218118</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>3178670</v>
+        <v>3177838</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>3256422</v>
+        <v>3255782</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.8611607234570927</v>
+        <v>0.8611607234570924</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.8506045850784183</v>
+        <v>0.8503820088130442</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8714106987842486</v>
+        <v>0.8712394101696878</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>7636</v>
@@ -2986,19 +2986,19 @@
         <v>6269692</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>6208705</v>
+        <v>6210718</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>6326355</v>
+        <v>6338241</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.8624397525244587</v>
+        <v>0.8624397525244586</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.8540505392360148</v>
+        <v>0.8543275252481485</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.8702341883990934</v>
+        <v>0.8718690847350031</v>
       </c>
     </row>
     <row r="38">
